--- a/Historical Papers/Collections/MCH123.xlsx
+++ b/Historical Papers/Collections/MCH123.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="228" yWindow="552" windowWidth="15036" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="200">
   <si>
     <t>identifier</t>
   </si>
@@ -35,29 +38,611 @@
   </si>
   <si>
     <t>file_path</t>
+  </si>
+  <si>
+    <t>MCH123-1</t>
+  </si>
+  <si>
+    <t>NEWSLETTERS, CONTACT VOL. 4 NO. 1- VOL. 5 NO. 2</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>1 Box</t>
+  </si>
+  <si>
+    <t>LOCATION: 21D | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-2</t>
+  </si>
+  <si>
+    <t>PERIODICALS</t>
+  </si>
+  <si>
+    <t>MCH123-3</t>
+  </si>
+  <si>
+    <t>BOOKS- ODI AND MONTHLY REVIEW, MAJI MAJI</t>
+  </si>
+  <si>
+    <t>LOCATION: 21E | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-4</t>
+  </si>
+  <si>
+    <t>BOOKS- TANZANIA NOTES AND RECORDS, FREEDOMWAYS, NIGERIA MAGAZINE</t>
+  </si>
+  <si>
+    <t>MCH123-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKS- RESEARCH IN AFRICAN LITERATURES </t>
+  </si>
+  <si>
+    <t>MCH123-6</t>
+  </si>
+  <si>
+    <t>MCH123-7</t>
+  </si>
+  <si>
+    <t>THESIS</t>
+  </si>
+  <si>
+    <t>MCH123-8</t>
+  </si>
+  <si>
+    <t>PUBLICATIONS- TRANSITION, AFRICA TODAY, AFRICAN ARTS</t>
+  </si>
+  <si>
+    <t>MCH123-9</t>
+  </si>
+  <si>
+    <t>ARTICLES</t>
+  </si>
+  <si>
+    <t>MCH123-10</t>
+  </si>
+  <si>
+    <t>BOOKS- THE AFRICAN STUDIES REVIEW</t>
+  </si>
+  <si>
+    <t>MCH123-11</t>
+  </si>
+  <si>
+    <t>ARTICLES &amp; NEWSLETTERS</t>
+  </si>
+  <si>
+    <t>MCH123-12</t>
+  </si>
+  <si>
+    <t>ARTICLES ON DIFFERENT AFRICAN COUNTRIES</t>
+  </si>
+  <si>
+    <t>MCH123-13</t>
+  </si>
+  <si>
+    <t>ECONOMIC SANCTIONS AGAINST AFRICA NO.1-14, SPORT, THE ARTS &amp; THE COLOUR BAR IN SA, MALCOM X, RACE AGAINST RACE, THE SECTION TEN PEOPLE, DISQUALIFIED, CRISIS IN THE REVOLUTION, CENSORSHIP PRESS CONFERENCE, RETREAT FROM APARTHEID, THE SOUTH AFRICAN DISEASE</t>
+  </si>
+  <si>
+    <t>LOCATION: 21F | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-14</t>
+  </si>
+  <si>
+    <t>JOURNALS, THEARTE  &amp; PLAYS,  AFRICAN LITERATURE &amp; LANGUAGE, SA FREEDOM NEWS</t>
+  </si>
+  <si>
+    <t>MCH123-15</t>
+  </si>
+  <si>
+    <t>ARTICLES ON SA POLITICS</t>
+  </si>
+  <si>
+    <t>MCH123-16</t>
+  </si>
+  <si>
+    <t>NEWSPAPER ARTICLES, ARTICLES WRITTEN ABOUT DIFFERENT AFRICAN CULTURES</t>
+  </si>
+  <si>
+    <t>MCH123-17</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>MCH123-18</t>
+  </si>
+  <si>
+    <t>LIBERATOR 1963- INCOMPLETE, 1964- COMPLETE, 1965- INCOMPLETE</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>MCH123-19</t>
+  </si>
+  <si>
+    <t>ARTICLES OF DIFFERENT AFRICAN COUNTRIES</t>
+  </si>
+  <si>
+    <t>MCH123-20</t>
+  </si>
+  <si>
+    <t>MCH123-21</t>
+  </si>
+  <si>
+    <t>A SEASON IN THE CONGO, TANZANIA, AFRICAN MUSIC &amp; FESTIVALS, NEWSPAPER CUTTINGS</t>
+  </si>
+  <si>
+    <t>MCH123-22</t>
+  </si>
+  <si>
+    <t>AFRICAN IMAGES OF MODERNISATION BY AMACHREE, ACTION ON NAMIBIA</t>
+  </si>
+  <si>
+    <t>MCH123-23</t>
+  </si>
+  <si>
+    <t>THE AFRICAN STUDIES REVIEW 1984-1990, SCIENCE &amp; SOCIETY 1949-1953, RESEARCH IN AFRICAN LITERATURE 1971-1978, AFRICA TODAY 1973-1989</t>
+  </si>
+  <si>
+    <t>1984-1990</t>
+  </si>
+  <si>
+    <t>LOCATION: 21G | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-24</t>
+  </si>
+  <si>
+    <t>PHYLON: THE ATLANTA UNIVERITY/ RIVIEW ON RACE &amp; CULTURE, AFRICAN STUDIES 1991/1992, ESTUDOS MOCAMBICANOS, TRANSAFRICA FORUM, AFRICA 1961, MOZAMBIQUE BRIEFING, MANUAL DO MOBILIZADOR, ANTIOCH REVIEW, AFRICAN LITERATURE TODAY VENTURE 1969-1970</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>MCH123-25</t>
+  </si>
+  <si>
+    <t>ARTICLES- BIOGRAPHY OF JULUIS NEYERE</t>
+  </si>
+  <si>
+    <t>MCH123-26</t>
+  </si>
+  <si>
+    <t>WRITINGS, BOOKLET: SA THE TREASOW TRIAL, BOOKLET: ECONOMIC SANCTIONS AGAINST...</t>
+  </si>
+  <si>
+    <t>MCH123-27</t>
+  </si>
+  <si>
+    <t>ARTICLES ( NEWSPAPERS), NOTES ETC</t>
+  </si>
+  <si>
+    <t>MCH123-28</t>
+  </si>
+  <si>
+    <t>NEWSPAPERS &amp; DIFFERENT ARTICLES</t>
+  </si>
+  <si>
+    <t>MCH123-29</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>MCH123-30</t>
+  </si>
+  <si>
+    <t>KLASSE NYNORSKI, OUTLOOK/SPARE RIB 1989-1990, CORRESPONDENCE T MAGAZINE, THE WORD/ DIAMOND INTERMISSION 199</t>
+  </si>
+  <si>
+    <t>1989-1990</t>
+  </si>
+  <si>
+    <t>MCH123-31</t>
+  </si>
+  <si>
+    <t>NEWSPAPERS: PR WEEK/TRIBUNE/7 DAYS/THE WORKER/AMANDLA/THE NEWS CARRINEAN TIMES/ISLINGTON CHRONICLE, ARTICLES: GEOGRAPHY REVIEW/NEWSLETTER/ITF INLAND TRANSPORT BULLETIN/MALIBONSWE/FINANCIAL MAIL/ POSTERS</t>
+  </si>
+  <si>
+    <t>LOCATION: 21H | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWSLETTERS  </t>
+  </si>
+  <si>
+    <t>MCH123-33</t>
+  </si>
+  <si>
+    <t>NEWSPAPER ARTICLES, FLIERS, LEAFLETS &amp; PAMPHLETS</t>
+  </si>
+  <si>
+    <t>MCH123-34</t>
+  </si>
+  <si>
+    <t>PRESS STATEMENTS, PETITIONS, REPORTS, CONFRENCES &amp; BOOK, REVIEWS, MEMOS, CHRONOLOGY: ANGOLA, ZIMBABWE</t>
+  </si>
+  <si>
+    <t>MCH123-35</t>
+  </si>
+  <si>
+    <t>INFORMATION: SA &amp; ANALYSIS, AFRICA ED, US POLICY TOWARD SOUTHERN AFRICA, HUNGER, NEWS ITEMS, ACCOUNT:BLACK, WHITE POLITICS, EXCERPT: AFRICAN NATIVES, PRICE LIST: YALE UNN, LIBERAL: AFRICAN COLLECTION</t>
+  </si>
+  <si>
+    <t>MCH123-36</t>
+  </si>
+  <si>
+    <t>PRESENCE AFRICAINE 1956-1966, LÁFRIQUE LITERATURE ET ARTISTIQUE</t>
+  </si>
+  <si>
+    <t>1956-1966</t>
+  </si>
+  <si>
+    <t>MCH123-37</t>
+  </si>
+  <si>
+    <t>SPEECHES &amp; INTERVIEWS, IDAF CATALOUGE, ARTICLES ON DIFFERENT SA PERSONALITIES</t>
+  </si>
+  <si>
+    <t>MCH123-38</t>
+  </si>
+  <si>
+    <t>THIRD WORLD QUATERLY/THE JOURNAL OF AFRICAN HISTORY/MONTHLY REVIEW/NEWS FROM THE HILL BULLETIN/AFRICAN JOURNAL/JOURNAL OF THE NEGRO/LAST AFRICA JOURNAL/TANZANIA NOTES &amp; RECORDSD/EDUCATION FOR EMPLOYEES</t>
+  </si>
+  <si>
+    <t>MCH123-39</t>
+  </si>
+  <si>
+    <t>PHOTOGRAPHS</t>
+  </si>
+  <si>
+    <t>MCH123-40</t>
+  </si>
+  <si>
+    <t>ARTICLES ON AFRICAN DRAMA</t>
+  </si>
+  <si>
+    <t>MCH123-41</t>
+  </si>
+  <si>
+    <t>ARTICLES ON CULTURAL EVENTS IN AFRICA</t>
+  </si>
+  <si>
+    <t>LOCATION: 21I | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-42</t>
+  </si>
+  <si>
+    <t>JULIET/FINANCIAL REPORT/ACTION/CATALYST/LOBBY BREIEFING/THE IN DEPENDANT MAGAZINE/AFRICAN WOMEN/SPARE RIB/AGENDA/SOUTH/WAR ON WANT/AMANDLA/NIGRIZIA/IDAF/NAMIBIA/WORKING/NEWSLETTER 1986-1989</t>
+  </si>
+  <si>
+    <t>1986-1989</t>
+  </si>
+  <si>
+    <t>MCH123-43</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE</t>
+  </si>
+  <si>
+    <t>MCH123-44</t>
+  </si>
+  <si>
+    <t>AFRICAN THEATRE</t>
+  </si>
+  <si>
+    <t>MCH123-45</t>
+  </si>
+  <si>
+    <t>MCH123-46</t>
+  </si>
+  <si>
+    <t>MCH123-47</t>
+  </si>
+  <si>
+    <t>CONFERENCE PAPERS</t>
+  </si>
+  <si>
+    <t>MCH123-48</t>
+  </si>
+  <si>
+    <t>1976-1983</t>
+  </si>
+  <si>
+    <t>MCH123-49</t>
+  </si>
+  <si>
+    <t>1961-1956</t>
+  </si>
+  <si>
+    <t>MCH123-50</t>
+  </si>
+  <si>
+    <t>1966-1975</t>
+  </si>
+  <si>
+    <t>MCH123-51</t>
+  </si>
+  <si>
+    <t>BOOKS: REVOLUTION, BLACK WORLD, NEGRO DIGEST, UMMA, PHYLON</t>
+  </si>
+  <si>
+    <t>LOCATION: 21J | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-52</t>
+  </si>
+  <si>
+    <t>MCH123-53</t>
+  </si>
+  <si>
+    <t>PRESENCE AFRCAINE BOOKS</t>
+  </si>
+  <si>
+    <t>MCH123-54</t>
+  </si>
+  <si>
+    <t>MCH123-55</t>
+  </si>
+  <si>
+    <t>BOOKS- AFRICAN ARTS</t>
+  </si>
+  <si>
+    <t>MCH123-56</t>
+  </si>
+  <si>
+    <t>BOOKS</t>
+  </si>
+  <si>
+    <t>MCH123-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLICATIONS- TRANSITION  </t>
+  </si>
+  <si>
+    <t>MCH123-58</t>
+  </si>
+  <si>
+    <t>NEWSPAPERS, PAMPHLETS, NEWSLETTERS, STUDY GUIDE &amp; RESEARCH</t>
+  </si>
+  <si>
+    <t>MCH123-59</t>
+  </si>
+  <si>
+    <t>NEWSPAPERS</t>
+  </si>
+  <si>
+    <t>MCH123-60</t>
+  </si>
+  <si>
+    <t>PUBLICATIONS- AFRICAN ARTS</t>
+  </si>
+  <si>
+    <t>MCH123-61</t>
+  </si>
+  <si>
+    <t>BOOKS- THIRD WORLD QUARTERLY, BA SHIU, BLACK SCHOLAL</t>
+  </si>
+  <si>
+    <t>LOCATION: 21K | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-62</t>
+  </si>
+  <si>
+    <t>BOOKS, AFRICA TODAY, THE CLASSIC, UMOJA</t>
+  </si>
+  <si>
+    <t>MCH123-63</t>
+  </si>
+  <si>
+    <t>CULTURAL EVENTS IN AFRICA 1964-1971, THE BULLETIN OF ASS- FOR AFRICAN LITERATURE IN ENGLISH, CHEMCHEMI CULTURAL CENTRE WRITERS WORKSHOP 1964</t>
+  </si>
+  <si>
+    <t>1964-1971</t>
+  </si>
+  <si>
+    <t>MCH123-64</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS 1975, 76, 77</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>LOCATION: 94M | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-65</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS JAN-DEC 1978, JAN-DEC 1980, JAN-DEC 1981</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>MCH123-66</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS JAN 8- NOV 1982, JAN-DEC 1984</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>MCH123-67</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS 1985, 86, 87</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>MCH123-68</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS 1987-1989</t>
+  </si>
+  <si>
+    <t>1987-1989</t>
+  </si>
+  <si>
+    <t>MCH123-69</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS JAN-DEC 1980/90</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>MCH123-70</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS 1991-1993</t>
+  </si>
+  <si>
+    <t>1991-1993</t>
+  </si>
+  <si>
+    <t>MCH123-71</t>
+  </si>
+  <si>
+    <t>FACTS AND REPORTS 1994-1995</t>
+  </si>
+  <si>
+    <t>1994-1995</t>
+  </si>
+  <si>
+    <t>MCH123-72</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1977</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>MCH123-73</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1978</t>
+  </si>
+  <si>
+    <t>MCH123-74</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1976</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>LOCATION: 94N | GRAP COUNT NUMER: NONE</t>
+  </si>
+  <si>
+    <t>MCH123-75</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1980</t>
+  </si>
+  <si>
+    <t>MCH123-76</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1981</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>MCH123-77</t>
+  </si>
+  <si>
+    <t>AF PREWS CLIPS 1982-1983</t>
+  </si>
+  <si>
+    <t>1982-1983</t>
+  </si>
+  <si>
+    <t>MCH123-78</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1984</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>MCH123-79</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1985</t>
+  </si>
+  <si>
+    <t>MCH123-80</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1986-1987</t>
+  </si>
+  <si>
+    <t>1986-1987</t>
+  </si>
+  <si>
+    <t>MCH123-81</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1988 JAN-JUN, JULY-DEC</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>MCH123-82</t>
+  </si>
+  <si>
+    <t>AF PRESS CLIPS 1989-1990</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -65,7 +650,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -75,33 +660,39 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -291,28 +882,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -356,7 +950,1617 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>